--- a/Joe1.xlsx
+++ b/Joe1.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shebliatrash/Desktop/AbdallahMeera/2025/Journals/Journal/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BE6917-44A9-714B-82D1-762FF84A8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
-  <si>
-    <t>**Table X. Summary of all data**</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+  <si>
+    <t xml:space="preserve">**Table X. Summary of all data**</t>
   </si>
   <si>
     <t xml:space="preserve">Characteristic
 </t>
   </si>
   <si>
-    <t>Country</t>
+    <t xml:space="preserve">Country</t>
   </si>
   <si>
     <t xml:space="preserve">    Australia</t>
@@ -149,7 +141,7 @@
     <t xml:space="preserve">    Venezuela</t>
   </si>
   <si>
-    <t>Region/Continent_</t>
+    <t xml:space="preserve">Region/Continent_</t>
   </si>
   <si>
     <t xml:space="preserve">    Africa/Middle East</t>
@@ -176,34 +168,34 @@
     <t xml:space="preserve">    Western Europe</t>
   </si>
   <si>
-    <t>H-Index_</t>
-  </si>
-  <si>
-    <t>Original_article_cost_($)</t>
+    <t xml:space="preserve">H-Index_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original_article_cost_($)</t>
   </si>
   <si>
     <t xml:space="preserve">    Unknown</t>
   </si>
   <si>
-    <t>Cost_Review_of_article_($)</t>
-  </si>
-  <si>
-    <t>Cost_editoria_($)</t>
-  </si>
-  <si>
-    <t>Cost_of_Guidelines__($)</t>
-  </si>
-  <si>
-    <t>Cost_Letter_to_editors_($)</t>
-  </si>
-  <si>
-    <t>Cost_case_series__($)</t>
-  </si>
-  <si>
-    <t>Cost_of_comments_($)</t>
-  </si>
-  <si>
-    <t>Open_Access_(Y/N)</t>
+    <t xml:space="preserve">Cost_Review_of_article_($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost_editoria_($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost_of_Guidelines__($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost_Letter_to_editors_($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost_case_series__($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost_of_comments_($)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open_Access_(Y/N)</t>
   </si>
   <si>
     <t xml:space="preserve">    N</t>
@@ -212,7 +204,7 @@
     <t xml:space="preserve">    Y</t>
   </si>
   <si>
-    <t>Publishing_Model</t>
+    <t xml:space="preserve">Publishing_Model</t>
   </si>
   <si>
     <t xml:space="preserve">    fully open access</t>
@@ -233,16 +225,16 @@
     <t xml:space="preserve">    subscription</t>
   </si>
   <si>
-    <t>Impact_Factor-Clarivate</t>
-  </si>
-  <si>
-    <t>Journal_Citation_Indicator-Clarivate</t>
-  </si>
-  <si>
-    <t>Total_Citations_(2023</t>
-  </si>
-  <si>
-    <t>Impact_Factor_Index</t>
+    <t xml:space="preserve">Impact_Factor-Clarivate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal_Citation_Indicator-Clarivate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_Citations_(2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact_Factor_Index</t>
   </si>
   <si>
     <t xml:space="preserve">    Less or equal to 5</t>
@@ -251,144 +243,145 @@
     <t xml:space="preserve">    Higher than 5</t>
   </si>
   <si>
-    <t>n (%); Mean (range: Min to Max)</t>
+    <t xml:space="preserve">n (%); Mean (range: Min to Max)</t>
   </si>
   <si>
     <t xml:space="preserve">N = 458
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>3 (0.7%)</t>
-  </si>
-  <si>
-    <t>1 (0.2%)</t>
-  </si>
-  <si>
-    <t>4 (0.9%)</t>
-  </si>
-  <si>
-    <t>15 (3.3%)</t>
-  </si>
-  <si>
-    <t>2 (0.4%)</t>
-  </si>
-  <si>
-    <t>6 (1.3%)</t>
-  </si>
-  <si>
-    <t>8 (1.7%)</t>
-  </si>
-  <si>
-    <t>18 (3.9%)</t>
-  </si>
-  <si>
-    <t>10 (2.2%)</t>
-  </si>
-  <si>
-    <t>7 (1.5%)</t>
-  </si>
-  <si>
-    <t>11 (2.4%)</t>
-  </si>
-  <si>
-    <t>9 (2.0%)</t>
-  </si>
-  <si>
-    <t>28 (6.1%)</t>
-  </si>
-  <si>
-    <t>12 (2.6%)</t>
-  </si>
-  <si>
-    <t>17 (3.7%)</t>
-  </si>
-  <si>
-    <t>5 (1.1%)</t>
-  </si>
-  <si>
-    <t>16 (3.5%)</t>
-  </si>
-  <si>
-    <t>88 (19%)</t>
-  </si>
-  <si>
-    <t>140 (31%)</t>
-  </si>
-  <si>
-    <t>46 (10%)</t>
-  </si>
-  <si>
-    <t>35 (7.6%)</t>
-  </si>
-  <si>
-    <t>19 (4.1%)</t>
-  </si>
-  <si>
-    <t>144 (31%)</t>
-  </si>
-  <si>
-    <t>190 (41%)</t>
-  </si>
-  <si>
-    <t>70 (range: 1 to 624)</t>
-  </si>
-  <si>
-    <t>2,552 (range: 0 to 12,290)</t>
-  </si>
-  <si>
-    <t>2,582 (range: 0 to 10,000)</t>
-  </si>
-  <si>
-    <t>2,229 (range: 0 to 6,000)</t>
-  </si>
-  <si>
-    <t>2,069 (range: 0 to 5,500)</t>
-  </si>
-  <si>
-    <t>2,421 (range: 0 to 10,000)</t>
-  </si>
-  <si>
-    <t>1,898 (range: 0 to 5,500)</t>
-  </si>
-  <si>
-    <t>2,522 (range: 0 to 9,350)</t>
-  </si>
-  <si>
-    <t>448 (98%)</t>
-  </si>
-  <si>
-    <t>64 (14%)</t>
-  </si>
-  <si>
-    <t>182 (40%)</t>
-  </si>
-  <si>
-    <t>191 (42%)</t>
-  </si>
-  <si>
-    <t>6.0 (range: 0.0 to 503.1)</t>
-  </si>
-  <si>
-    <t>1.37 (range: 0.01 to 88.75)</t>
-  </si>
-  <si>
-    <t>8,828 (range: 11 to 169,257)</t>
-  </si>
-  <si>
-    <t>302 (81%)</t>
-  </si>
-  <si>
-    <t>69 (19%)</t>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (0.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 (0.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (0.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (3.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (1.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (1.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (3.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (2.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (1.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (2.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (2.0%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (6.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (3.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (1.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (3.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140 (31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 (10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (7.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (4.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144 (31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190 (41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 (range: 1 to 624)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,552 (range: 0 to 12,290)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,582 (range: 0 to 10,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,229 (range: 0 to 6,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,069 (range: 0 to 5,500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,421 (range: 0 to 10,000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,898 (range: 0 to 5,500)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,522 (range: 0 to 9,350)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448 (98%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 (14%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182 (40%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191 (42%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8 (range: 0.0 to 503.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09 (range: 0.00 to 88.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,828 (range: 11 to 169,257)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389 (85%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69 (15%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -400,14 +393,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -427,99 +418,116 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -801,719 +809,693 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="NA" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="NA" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="NA" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="NA" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="NA" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="NA" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="NA" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="NA" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="NA" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="NA" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="NA" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="NA" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" ht="NA" customHeight="1">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" ht="NA" customHeight="1">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" ht="NA" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" ht="NA" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" ht="NA" customHeight="1">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" ht="NA" customHeight="1">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" ht="NA" customHeight="1">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" ht="NA" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" ht="NA" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="22" ht="NA" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" ht="NA" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" ht="NA" customHeight="1">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" ht="NA" customHeight="1">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="26" ht="NA" customHeight="1">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" ht="NA" customHeight="1">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" ht="NA" customHeight="1">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" ht="NA" customHeight="1">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" ht="NA" customHeight="1">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" ht="NA" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" ht="NA" customHeight="1">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" ht="NA" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="34" ht="NA" customHeight="1">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="35" ht="NA" customHeight="1">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" ht="NA" customHeight="1">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="37" ht="NA" customHeight="1">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="38" ht="NA" customHeight="1">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="39" ht="NA" customHeight="1">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="40" ht="NA" customHeight="1">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    <row r="41" ht="NA" customHeight="1">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="42" ht="NA" customHeight="1">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+    <row r="43" ht="NA" customHeight="1">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="44" ht="NA" customHeight="1">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+    <row r="45" ht="NA" customHeight="1">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+    <row r="46" ht="NA" customHeight="1">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+    <row r="47" ht="NA" customHeight="1">
+      <c r="A47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+    <row r="48" ht="NA" customHeight="1">
+      <c r="A48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+    <row r="49" ht="NA" customHeight="1">
+      <c r="A49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+    <row r="50" ht="NA" customHeight="1">
+      <c r="A50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+    <row r="51" ht="NA" customHeight="1">
+      <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+    <row r="52" ht="NA" customHeight="1">
+      <c r="A52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+    <row r="53" ht="NA" customHeight="1">
+      <c r="A53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+    <row r="54" ht="NA" customHeight="1">
+      <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="9" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+    <row r="55" ht="NA" customHeight="1">
+      <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+    <row r="56" ht="NA" customHeight="1">
+      <c r="A56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="9" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+    <row r="57" ht="NA" customHeight="1">
+      <c r="A57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+    <row r="58" ht="NA" customHeight="1">
+      <c r="A58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="9" t="n">
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+    <row r="59" ht="NA" customHeight="1">
+      <c r="A59" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+    <row r="60" ht="NA" customHeight="1">
+      <c r="A60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="9" t="n">
         <v>397</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+    <row r="61" ht="NA" customHeight="1">
+      <c r="A61" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+    <row r="62" ht="NA" customHeight="1">
+      <c r="A62" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="9" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+    <row r="63" ht="NA" customHeight="1">
+      <c r="A63" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+    <row r="64" ht="NA" customHeight="1">
+      <c r="A64" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="9" t="n">
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+    <row r="65" ht="NA" customHeight="1">
+      <c r="A65" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+    <row r="66" ht="NA" customHeight="1">
+      <c r="A66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="9" t="n">
         <v>266</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+    <row r="67" ht="NA" customHeight="1">
+      <c r="A67" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+    <row r="68" ht="NA" customHeight="1">
+      <c r="A68" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+    <row r="69" ht="NA" customHeight="1">
+      <c r="A69" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+    <row r="70" ht="NA" customHeight="1">
+      <c r="A70" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+    <row r="71" ht="NA" customHeight="1">
+      <c r="A71" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+    <row r="72" ht="NA" customHeight="1">
+      <c r="A72" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+    <row r="73" ht="NA" customHeight="1">
+      <c r="A73" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+    <row r="74" ht="NA" customHeight="1">
+      <c r="A74" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+    <row r="75" ht="NA" customHeight="1">
+      <c r="A75" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+    <row r="76" ht="NA" customHeight="1">
+      <c r="A76" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+    <row r="77" ht="NA" customHeight="1">
+      <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
+    <row r="78" ht="NA" customHeight="1">
+      <c r="A78" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" ht="NA" customHeight="1">
+      <c r="A79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" ht="NA" customHeight="1">
+      <c r="A80" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="7">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="7">
+      <c r="B80" s="9" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+    <row r="81" ht="NA" customHeight="1">
+      <c r="A81" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B81" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" ht="NA" customHeight="1">
+      <c r="A82" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" ht="NA" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B86" s="9">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B84" s="6" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A84:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Joe1.xlsx
+++ b/Joe1.xlsx
@@ -367,7 +367,7 @@
     <t xml:space="preserve">1.09 (range: 0.00 to 88.75)</t>
   </si>
   <si>
-    <t xml:space="preserve">8,828 (range: 11 to 169,257)</t>
+    <t xml:space="preserve">7,170 (range: 0 to 169,257)</t>
   </si>
   <si>
     <t xml:space="preserve">389 (85%)</t>
@@ -1452,48 +1452,40 @@
     </row>
     <row r="80" ht="NA" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="9" t="n">
-        <v>86</v>
+        <v>73</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="81" ht="NA" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" ht="NA" customHeight="1">
-      <c r="A82" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" ht="NA" customHeight="1">
-      <c r="A83" s="5" t="s">
+      <c r="A82" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B82" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="6" t="s">
+    <row r="83">
+      <c r="A83" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A83:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
